--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -676,7 +676,7 @@
         <v>1.86</v>
       </c>
       <c r="I2" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
         <v>3.95</v>
@@ -685,58 +685,58 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.55</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.96</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W2" t="n">
         <v>1.27</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -745,25 +745,25 @@
         <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>130</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
@@ -772,7 +772,7 @@
         <v>90</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I3" t="n">
         <v>1.98</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -829,37 +829,37 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
         <v>2.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
         <v>2.68</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>1.26</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K5" t="n">
         <v>8</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G7" t="n">
         <v>5.2</v>
@@ -1480,7 +1480,7 @@
         <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
         <v>4.4</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.7</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,16 +697,16 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
         <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
@@ -715,52 +715,52 @@
         <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,16 +769,16 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Chinese Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:45:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Shanghai Port FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Zhejiang Greentown</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>1.89</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.98</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.2</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.59</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>2.36</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.02</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:40:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="G4" t="n">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>1.92</v>
       </c>
       <c r="I4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Chinese Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>08:35:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.86</v>
+        <v>3.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1193,33 +1193,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:40:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>1.24</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.74</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,125 +1463,395 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.05</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="K10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.14</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="N10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.58</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="P10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.19</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S10" t="n">
         <v>5.8</v>
       </c>
-      <c r="T8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="T10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.76</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
         <v>120</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB10" t="n">
         <v>7</v>
       </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>26</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI10" t="n">
         <v>110</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ10" t="n">
         <v>32</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK10" t="n">
         <v>34</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL10" t="n">
         <v>70</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM10" t="n">
         <v>1000</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN10" t="n">
         <v>32</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO10" t="n">
         <v>150</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="I2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.85</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
         <v>1.99</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
         <v>16</v>
@@ -727,10 +727,10 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -739,28 +739,28 @@
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
         <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
         <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
         <v>6.4</v>
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O3" t="n">
         <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="Q3" t="n">
         <v>1.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -847,22 +847,22 @@
         <v>1.36</v>
       </c>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
         <v>55</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
         <v>130</v>
@@ -871,7 +871,7 @@
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -895,19 +895,19 @@
         <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>980</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>1.92</v>
@@ -952,19 +952,19 @@
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>5.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>2.5</v>
@@ -1003,7 +1003,7 @@
         <v>28</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
@@ -1012,37 +1012,37 @@
         <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J5" t="n">
         <v>4.9</v>
@@ -1090,94 +1090,94 @@
         <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G7" t="n">
         <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
         <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>2.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
         <v>2.16</v>
@@ -1510,7 +1510,7 @@
         <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
         <v>4.3</v>
@@ -1636,28 +1636,28 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
         <v>1.69</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
         <v>19.5</v>
@@ -1687,10 +1687,10 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1708,7 +1708,7 @@
         <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
         <v>65</v>
@@ -1780,13 +1780,13 @@
         <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R10" t="n">
         <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T10" t="n">
         <v>2.24</v>
@@ -1813,7 +1813,7 @@
         <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
@@ -1840,7 +1840,7 @@
         <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
         <v>70</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>150</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
         <v>1.97</v>
@@ -679,10 +679,10 @@
         <v>2.06</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
@@ -691,58 +691,58 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
         <v>1.94</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -754,13 +754,13 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
         <v>4.7</v>
@@ -838,16 +838,16 @@
         <v>1.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U3" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
@@ -868,13 +868,13 @@
         <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
         <v>22</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>60</v>
@@ -904,10 +904,10 @@
         <v>980</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G4" t="n">
         <v>3.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -955,28 +955,28 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
         <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
         <v>1.58</v>
@@ -985,64 +985,64 @@
         <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL4" t="n">
         <v>48</v>
       </c>
-      <c r="AL4" t="n">
-        <v>50</v>
-      </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1075,22 +1075,22 @@
         <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I5" t="n">
         <v>10.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T5" t="n">
         <v>1.58</v>
@@ -1123,7 +1123,7 @@
         <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="X5" t="n">
         <v>55</v>
@@ -1156,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
         <v>80</v>
@@ -1210,13 +1210,13 @@
         <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.55</v>
@@ -1240,7 +1240,7 @@
         <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
@@ -1255,7 +1255,7 @@
         <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
         <v>1.69</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
         <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
         <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1381,13 +1381,13 @@
         <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
@@ -1402,7 +1402,7 @@
         <v>70</v>
       </c>
       <c r="Z7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
         <v>650</v>
@@ -1414,10 +1414,10 @@
         <v>17.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1429,7 +1429,7 @@
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
@@ -1441,19 +1441,19 @@
         <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
         <v>3.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.3</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,261 +1598,4581 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.68</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
         <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Cypriot 1st Division</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Aris FC Limassol</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Akritas Chlorakas</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Czech 2 Liga</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Vysocina Jihlava</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sparta Prague B</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Preussen Munster</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X12" t="n">
+        <v>960</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Al-Hazm (KSA)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AC Horsens</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HB Koge</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>980</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Danish 2nd Division</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fremad Amager</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>950</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>German 3 Liga</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Viktoria Koln</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X18" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>960</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X19" t="n">
+        <v>960</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X20" t="n">
+        <v>960</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K24" t="n">
+        <v>980</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Aubagne FC</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hungarian NB I</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Kisvarda</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X31" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>960</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FC Oss</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FC Vaduz</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Casertana</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>AZ Picerno ASD</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Sociedad B</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>2025-10-31</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T41" t="n">
         <v>2.26</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="U41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="W41" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X41" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="X10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>150</v>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +673,10 @@
         <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -685,49 +685,49 @@
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
         <v>25</v>
@@ -736,7 +736,7 @@
         <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,10 +769,10 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
         <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -835,10 +835,10 @@
         <v>4.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -847,58 +847,58 @@
         <v>1.35</v>
       </c>
       <c r="U3" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="n">
         <v>55</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
         <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>980</v>
@@ -943,10 +943,10 @@
         <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -976,73 +976,73 @@
         <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
         <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
         <v>1.35</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
         <v>16</v>
       </c>
-      <c r="Z4" t="n">
-        <v>18</v>
-      </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>13</v>
-      </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1072,118 +1072,118 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I5" t="n">
         <v>7.8</v>
       </c>
-      <c r="I5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Z5" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>960</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:40:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>1.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>10:40:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.26</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>1.89</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="S7" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>4.3</v>
+        <v>1.69</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Slovenian 2 SNL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Krka</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Krsko</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>1.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>1.21</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gornik Leczna</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.15</v>
+        <v>1.27</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>13.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>2.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,67 +1738,67 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aris FC Limassol</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.13</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.4</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vysocina Jihlava</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
-        <v>7.2</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.87</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>1.71</v>
+        <v>2.66</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Aris FC Limassol</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>1.13</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.28</v>
+        <v>13.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>4.4</v>
       </c>
       <c r="X12" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>6.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>1.84</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>2.28</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.71</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO14" t="n">
         <v>15</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>2.84</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
         <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>38</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>29</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AC Horsens</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HB Koge</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.37</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>980</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.01</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>1.51</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1.94</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>2.06</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
-        <v>1.07</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>AC Horsens</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>HB Koge</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
-        <v>2.72</v>
+        <v>1.59</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>6.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
         <v>4.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
         <v>2.28</v>
       </c>
       <c r="T18" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>1.58</v>
+        <v>2.7</v>
       </c>
       <c r="X18" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>960</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>960</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>960</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.12</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>1.76</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
         <v>4</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.86</v>
+        <v>1.16</v>
       </c>
       <c r="X19" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>960</v>
+        <v>60</v>
       </c>
       <c r="AG19" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
         <v>85</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G20" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>2.68</v>
       </c>
       <c r="I20" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>3.45</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X20" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM20" t="n">
         <v>75</v>
       </c>
-      <c r="AB20" t="n">
-        <v>960</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>960</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>960</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>960</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>960</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>960</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21">
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="G21" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>1.64</v>
+        <v>2.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.42</v>
@@ -3265,79 +3265,79 @@
         <v>1.64</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.02</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>1.67</v>
       </c>
       <c r="G23" t="n">
-        <v>5.3</v>
+        <v>1.98</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>1.39</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>1.23</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="G24" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="H24" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.58</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3763,118 +3763,118 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.41</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
         <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.74</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,22 +3931,22 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>2.66</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
@@ -3955,10 +3955,10 @@
         <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.82</v>
+        <v>3.55</v>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>1.99</v>
       </c>
       <c r="I27" t="n">
-        <v>6.6</v>
+        <v>2.24</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
         <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>2.06</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z27" t="n">
         <v>13</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AA27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG27" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO27" t="n">
         <v>25</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95</v>
+        <v>2.68</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF28" t="n">
         <v>32</v>
       </c>
-      <c r="AA28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>960</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
         <v>17</v>
       </c>
-      <c r="AG28" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
         <v>24</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.7</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>4.3</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
         <v>4.1</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="R29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.39</v>
       </c>
-      <c r="S29" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="X29" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Z29" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM29" t="n">
         <v>65</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>110</v>
-      </c>
       <c r="AN29" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30">
@@ -4468,7 +4468,7 @@
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
         <v>7.2</v>
@@ -4480,85 +4480,85 @@
         <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="R30" t="n">
         <v>1.85</v>
       </c>
       <c r="S30" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T30" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="U30" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>1.7</v>
       </c>
       <c r="W30" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
         <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN30" t="n">
         <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S31" t="n">
-        <v>1.61</v>
+        <v>3.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V31" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="X31" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Z31" t="n">
         <v>36</v>
       </c>
       <c r="AA31" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AB31" t="n">
-        <v>960</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>960</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>960</v>
+        <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL31" t="n">
         <v>50</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>44</v>
-      </c>
       <c r="AM31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO31" t="n">
         <v>90</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>960</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.74</v>
+        <v>2.22</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="H32" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="J32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.6</v>
       </c>
-      <c r="K32" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="R32" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>2.48</v>
+        <v>3.55</v>
       </c>
       <c r="T32" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="U32" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z32" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AB32" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE32" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO32" t="n">
         <v>70</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P33" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
         <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W33" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="G34" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="H34" t="n">
         <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U34" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="X34" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>960</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
-        <v>960</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>960</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF34" t="n">
-        <v>960</v>
+        <v>16</v>
       </c>
       <c r="AG34" t="n">
-        <v>960</v>
+        <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="n">
         <v>30</v>
       </c>
       <c r="AK34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1.73</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>1.74</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K35" t="n">
         <v>4.5</v>
       </c>
-      <c r="K35" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="R35" t="n">
-        <v>1.69</v>
+        <v>1.09</v>
       </c>
       <c r="S35" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="T35" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.24</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,55 +5383,55 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="R37" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,55 +5440,55 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W37" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="G38" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,34 +5551,34 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.72</v>
+        <v>4.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
         <v>1.08</v>
       </c>
       <c r="S38" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="W38" t="n">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.79</v>
+        <v>2.56</v>
       </c>
       <c r="G39" t="n">
-        <v>2.24</v>
+        <v>2.88</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="I39" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="R39" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="S39" t="n">
-        <v>1.57</v>
+        <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="W39" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,32 +5788,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.52</v>
+        <v>3.55</v>
       </c>
       <c r="G40" t="n">
-        <v>1.61</v>
+        <v>5.2</v>
       </c>
       <c r="H40" t="n">
-        <v>6.2</v>
+        <v>2.02</v>
       </c>
       <c r="I40" t="n">
-        <v>7.2</v>
+        <v>2.44</v>
       </c>
       <c r="J40" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.5</v>
       </c>
-      <c r="K40" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>4.3</v>
+        <v>1.51</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>2.16</v>
+        <v>1.51</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="R40" t="n">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="S40" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5845,10 +5845,10 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.16</v>
+        <v>1.69</v>
       </c>
       <c r="W40" t="n">
-        <v>2.64</v>
+        <v>1.23</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,261 +5918,1611 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.18</v>
+        <v>4.9</v>
       </c>
       <c r="G41" t="n">
-        <v>2.22</v>
+        <v>5.2</v>
       </c>
       <c r="H41" t="n">
-        <v>4.4</v>
+        <v>1.71</v>
       </c>
       <c r="I41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J41" t="n">
         <v>4.5</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M41" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>2.68</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q41" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2.74</v>
-      </c>
       <c r="R41" t="n">
-        <v>1.19</v>
+        <v>1.69</v>
       </c>
       <c r="S41" t="n">
-        <v>5.7</v>
+        <v>2.36</v>
       </c>
       <c r="T41" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>2.56</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="X41" t="n">
-        <v>8.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>120</v>
+        <v>18.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="n">
         <v>19</v>
       </c>
-      <c r="AE41" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AI41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>110</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>32</v>
-      </c>
       <c r="AK41" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO41" t="n">
-        <v>150</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AZ Picerno ASD</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ayr</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Dunfermline</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H45" t="n">
+        <v>29</v>
+      </c>
+      <c r="I45" t="n">
+        <v>40</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W45" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>420</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Deportes Concepcion</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Union San Felipe</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>2025-10-31</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Deportes Iquique</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>La Serena</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="F47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.09</v>
       </c>
-      <c r="I42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="I47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>950</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>980</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>980</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K49" t="n">
+        <v>980</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>980</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X50" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Club 2 de Mayo de Pedro</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Club Atletico Tembetary</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.09</v>
       </c>
-      <c r="K42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
+      <c r="I51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wanderers (Uru)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +673,10 @@
         <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="I2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -703,25 +703,25 @@
         <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.6</v>
@@ -772,7 +772,7 @@
         <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
         <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>3.45</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
         <v>75</v>
@@ -877,7 +877,7 @@
         <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
         <v>24</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -967,28 +967,28 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
         <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
         <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
         <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="X5" t="n">
         <v>85</v>
       </c>
       <c r="Y5" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>75</v>
       </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
         <v>85</v>
       </c>
       <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>15</v>
       </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AL5" t="n">
         <v>22</v>
       </c>
-      <c r="AI5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>32</v>
-      </c>
       <c r="AM5" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AO5" t="n">
         <v>980</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
         <v>2.46</v>
@@ -1372,10 +1372,10 @@
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="R7" t="n">
         <v>1.11</v>
@@ -1390,16 +1390,16 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
         <v>1.69</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1411,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1507,13 +1507,13 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Q8" t="n">
         <v>1.21</v>
       </c>
       <c r="R8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S8" t="n">
         <v>1.21</v>
@@ -1627,7 +1627,7 @@
         <v>6.8</v>
       </c>
       <c r="K9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1642,22 +1642,22 @@
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
         <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
         <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
         <v>1.08</v>
@@ -1675,7 +1675,7 @@
         <v>130</v>
       </c>
       <c r="AA9" t="n">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1693,10 +1693,10 @@
         <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>980</v>
@@ -1708,7 +1708,7 @@
         <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
         <v>980</v>
@@ -1717,13 +1717,13 @@
         <v>3.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gornik Leczna</t>
+          <t>Aris FC Limassol</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Akritas Chlorakas</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>1.13</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.89</v>
+        <v>13.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>25</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,34 +1771,34 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>1.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.1</v>
       </c>
       <c r="S11" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aris FC Limassol</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Akritas Chlorakas</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.13</v>
+        <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X12" t="n">
         <v>25</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vysocina Jihlava</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sparta Prague B</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.87</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>1.89</v>
       </c>
       <c r="I13" t="n">
-        <v>6.8</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,34 +2176,34 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12</v>
       </c>
-      <c r="AE14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>980</v>
-      </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.85</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.8</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="S15" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
         <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>16.5</v>
       </c>
       <c r="AO15" t="n">
         <v>980</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.02</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.98</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.71</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>55</v>
       </c>
-      <c r="AF16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>26</v>
-      </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO16" t="n">
         <v>15</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2725,7 +2725,7 @@
         <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R17" t="n">
         <v>1.35</v>
@@ -2734,7 +2734,7 @@
         <v>2.62</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
         <v>2.16</v>
@@ -2896,7 +2896,7 @@
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
         <v>980</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H19" t="n">
         <v>1.6</v>
@@ -3001,10 +3001,10 @@
         <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO19" t="n">
         <v>980</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H20" t="n">
         <v>2.68</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K20" t="n">
         <v>4.4</v>
@@ -3124,28 +3124,28 @@
         <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.52</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>1.52</v>
       </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U20" t="n">
         <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W20" t="n">
         <v>1.58</v>
@@ -3178,7 +3178,7 @@
         <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.16</v>
+        <v>2.74</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.41</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.42</v>
-      </c>
       <c r="P21" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="W21" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,67 +3358,67 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="G22" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X22" t="n">
         <v>980</v>
@@ -3430,10 +3430,10 @@
         <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
         <v>9.199999999999999</v>
@@ -3442,7 +3442,7 @@
         <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AF22" t="n">
         <v>980</v>
@@ -3454,7 +3454,7 @@
         <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
         <v>980</v>
@@ -3463,7 +3463,7 @@
         <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3472,7 +3472,7 @@
         <v>980</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.67</v>
+        <v>3.6</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98</v>
+        <v>4.7</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>1.99</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01</v>
+        <v>2.76</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="G24" t="n">
-        <v>2.58</v>
+        <v>1.81</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.3</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,67 +3763,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X25" t="n">
         <v>980</v>
@@ -3835,19 +3835,19 @@
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD25" t="n">
         <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF25" t="n">
         <v>980</v>
@@ -3859,25 +3859,25 @@
         <v>980</v>
       </c>
       <c r="AI25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO25" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.74</v>
+        <v>2.16</v>
       </c>
       <c r="H26" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
         <v>3</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.67</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I27" t="n">
         <v>3.55</v>
       </c>
-      <c r="G27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.24</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
         <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
         <v>2.68</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.23</v>
       </c>
-      <c r="P28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S28" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V28" t="n">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK28" t="n">
         <v>28</v>
       </c>
-      <c r="AA28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>980</v>
-      </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Kisvarda</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.25</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.3</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.53</v>
+        <v>1.09</v>
       </c>
       <c r="S29" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.72</v>
+        <v>1.97</v>
       </c>
       <c r="G30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S30" t="n">
         <v>3.05</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.96</v>
-      </c>
       <c r="T30" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
       <c r="Y30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK30" t="n">
         <v>25</v>
       </c>
-      <c r="Z30" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AL30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO30" t="n">
         <v>55</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="G31" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
         <v>3.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
         <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
         <v>1.27</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="X31" t="n">
         <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z31" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA31" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI31" t="n">
         <v>75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM31" t="n">
         <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO31" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.95</v>
+        <v>2.68</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="S32" t="n">
-        <v>3.55</v>
+        <v>2.48</v>
       </c>
       <c r="T32" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="W32" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF32" t="n">
         <v>32</v>
       </c>
-      <c r="AA32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF32" t="n">
+      <c r="AG32" t="n">
         <v>17</v>
       </c>
-      <c r="AG32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ32" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>2.22</v>
       </c>
       <c r="I33" t="n">
-        <v>6.2</v>
+        <v>2.46</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>2.68</v>
+        <v>7.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="P33" t="n">
-        <v>1.64</v>
+        <v>3.15</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="S33" t="n">
-        <v>3.45</v>
+        <v>1.98</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="W33" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="Z33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>55</v>
       </c>
-      <c r="AA33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>25</v>
-      </c>
       <c r="AK33" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="AN33" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G34" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K34" t="n">
         <v>4.3</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.39</v>
       </c>
-      <c r="S34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W34" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AB34" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD34" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF34" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM34" t="n">
         <v>65</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>110</v>
-      </c>
       <c r="AN34" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kisvarda</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.35</v>
       </c>
-      <c r="I35" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.26</v>
+        <v>2.1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
         <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.52</v>
+        <v>5.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H37" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="I37" t="n">
-        <v>7.2</v>
+        <v>1.71</v>
       </c>
       <c r="J37" t="n">
         <v>4.5</v>
       </c>
       <c r="K37" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.27</v>
@@ -5416,94 +5416,94 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="O37" t="n">
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V37" t="n">
-        <v>1.16</v>
+        <v>2.4</v>
       </c>
       <c r="W37" t="n">
-        <v>2.66</v>
+        <v>1.23</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>30</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AH37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI37" t="n">
         <v>24</v>
       </c>
-      <c r="AI37" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="AK37" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.82</v>
+        <v>3.55</v>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>2.02</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>2.44</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="K38" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,34 +5551,34 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>4.2</v>
+        <v>1.51</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="R38" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S38" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="W38" t="n">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="G39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J39" t="n">
         <v>2.88</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K39" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.09</v>
       </c>
-      <c r="N39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>1.93</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W39" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="G40" t="n">
-        <v>5.2</v>
+        <v>2.88</v>
       </c>
       <c r="H40" t="n">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="I40" t="n">
-        <v>2.44</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>1.51</v>
+        <v>3.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="S40" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V40" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="W40" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.9</v>
+        <v>1.82</v>
       </c>
       <c r="G41" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>1.71</v>
+        <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>1.74</v>
+        <v>4.7</v>
       </c>
       <c r="J41" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.27</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N41" t="n">
-        <v>6</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.36</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="X41" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.34</v>
+        <v>1.52</v>
       </c>
       <c r="G42" t="n">
-        <v>3.15</v>
+        <v>1.61</v>
       </c>
       <c r="H42" t="n">
-        <v>2.74</v>
+        <v>6.2</v>
       </c>
       <c r="I42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N42" t="n">
         <v>3.45</v>
       </c>
-      <c r="J42" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.71</v>
-      </c>
       <c r="O42" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.09</v>
+        <v>1.53</v>
       </c>
       <c r="S42" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="W42" t="n">
-        <v>1.46</v>
+        <v>2.66</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -6343,10 +6343,10 @@
         <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I44" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
         <v>3.05</v>
@@ -6361,16 +6361,16 @@
         <v>1.14</v>
       </c>
       <c r="N44" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O44" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P44" t="n">
         <v>1.54</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="R44" t="n">
         <v>1.19</v>
@@ -6391,7 +6391,7 @@
         <v>1.79</v>
       </c>
       <c r="X44" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y44" t="n">
         <v>11</v>
@@ -6481,13 +6481,13 @@
         <v>29</v>
       </c>
       <c r="I45" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J45" t="n">
         <v>11</v>
       </c>
       <c r="K45" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.22</v>
@@ -6496,19 +6496,19 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>2.72</v>
+        <v>6.8</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
       </c>
       <c r="P45" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q45" t="n">
         <v>1.4</v>
       </c>
       <c r="R45" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
         <v>1.84</v>
@@ -6517,7 +6517,7 @@
         <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V45" t="n">
         <v>1.02</v>
@@ -6550,22 +6550,22 @@
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG45" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
         <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AJ45" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL45" t="n">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
         <v>400</v>
       </c>
       <c r="AN45" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6610,16 +6610,16 @@
         <v>1.04</v>
       </c>
       <c r="G46" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="I46" t="n">
         <v>1000</v>
       </c>
       <c r="J46" t="n">
-        <v>1.02</v>
+        <v>1.91</v>
       </c>
       <c r="K46" t="n">
         <v>1000</v>
@@ -6637,13 +6637,13 @@
         <v>1.32</v>
       </c>
       <c r="P46" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Q46" t="n">
         <v>1.32</v>
       </c>
       <c r="R46" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S46" t="n">
         <v>1.32</v>
@@ -6658,7 +6658,7 @@
         <v>1.01</v>
       </c>
       <c r="W46" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6928,7 +6928,7 @@
         <v>1.26</v>
       </c>
       <c r="W48" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G49" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H49" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I49" t="n">
         <v>980</v>
       </c>
       <c r="J49" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K49" t="n">
         <v>980</v>
@@ -7063,7 +7063,7 @@
         <v>1.01</v>
       </c>
       <c r="W49" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7165,7 +7165,7 @@
         <v>3.65</v>
       </c>
       <c r="L50" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
@@ -7312,7 +7312,7 @@
         <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="Q51" t="n">
         <v>1.36</v>
@@ -7420,16 +7420,16 @@
         <v>3.35</v>
       </c>
       <c r="G52" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>2.26</v>
       </c>
       <c r="I52" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J52" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K52" t="n">
         <v>3.4</v>
@@ -7468,7 +7468,7 @@
         <v>1.58</v>
       </c>
       <c r="W52" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7523,6 +7523,411 @@
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X53" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>21:35:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X55" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
         <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="I2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
         <v>12.5</v>
@@ -739,10 +739,10 @@
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -769,10 +769,10 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G3" t="n">
         <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
         <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
         <v>4.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R3" t="n">
         <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.23</v>
@@ -856,49 +856,49 @@
         <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z3" t="n">
         <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>980</v>
@@ -907,7 +907,7 @@
         <v>3.95</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
         <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
         <v>2.1</v>
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -964,10 +964,10 @@
         <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
         <v>1.61</v>
@@ -976,13 +976,13 @@
         <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
         <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V4" t="n">
         <v>1.91</v>
@@ -991,10 +991,10 @@
         <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
         <v>16</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1081,7 +1081,7 @@
         <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
         <v>4.8</v>
@@ -1090,19 +1090,19 @@
         <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q5" t="n">
         <v>1.4</v>
@@ -1114,19 +1114,19 @@
         <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
         <v>980</v>
@@ -1144,31 +1144,31 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>280</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>980</v>
@@ -1348,16 +1348,16 @@
         <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,46 +1366,46 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.89</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.31</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
         <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
@@ -1414,7 +1414,7 @@
         <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1423,13 +1423,13 @@
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1615,19 +1615,19 @@
         <v>1.27</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H9" t="n">
         <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
@@ -1648,7 +1648,7 @@
         <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
         <v>2.06</v>
@@ -1663,7 +1663,7 @@
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X9" t="n">
         <v>36</v>
@@ -1675,7 +1675,7 @@
         <v>130</v>
       </c>
       <c r="AA9" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1717,7 +1717,7 @@
         <v>3.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="H10" t="n">
-        <v>13.5</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="K10" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>1.56</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W10" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J11" t="n">
         <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
         <v>1.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,13 +2020,13 @@
         <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2038,34 +2038,34 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.51</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.51</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.21</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U12" t="n">
         <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
         <v>1.59</v>
@@ -2080,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
         <v>19.5</v>
@@ -2110,10 +2110,10 @@
         <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
         <v>70</v>
@@ -2167,7 +2167,7 @@
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
         <v>2.58</v>
@@ -2296,16 +2296,16 @@
         <v>2.84</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="J14" t="n">
         <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2317,13 +2317,13 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
         <v>2.64</v>
@@ -2332,10 +2332,10 @@
         <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W14" t="n">
         <v>1.63</v>
@@ -2344,28 +2344,28 @@
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2377,10 +2377,10 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
         <v>32</v>
@@ -2389,10 +2389,10 @@
         <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
@@ -2437,28 +2437,28 @@
         <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
         <v>3.1</v>
@@ -2467,7 +2467,7 @@
         <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
         <v>1.32</v>
@@ -2476,7 +2476,7 @@
         <v>1.87</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
         <v>16.5</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
@@ -2515,13 +2515,13 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
         <v>15</v>
@@ -2569,10 +2569,10 @@
         <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>1.34</v>
@@ -2581,34 +2581,34 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
         <v>1.71</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB16" t="n">
         <v>980</v>
@@ -2653,7 +2653,7 @@
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
         <v>70</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G17" t="n">
         <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2716,88 +2716,88 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
         <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
         <v>15</v>
       </c>
-      <c r="AC17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>17</v>
-      </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.24</v>
@@ -2857,28 +2857,28 @@
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.51</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -2896,13 +2896,13 @@
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
         <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
         <v>12</v>
@@ -2914,10 +2914,10 @@
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>980</v>
@@ -2932,7 +2932,7 @@
         <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>1.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2998,7 +2998,7 @@
         <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
         <v>2.4</v>
@@ -3010,10 +3010,10 @@
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="H20" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="I20" t="n">
         <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,34 +3121,34 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>1.52</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="W20" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
         <v>2.74</v>
@@ -3244,19 +3244,19 @@
         <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
@@ -3268,16 +3268,16 @@
         <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>1.38</v>
@@ -3286,58 +3286,58 @@
         <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
         <v>2.1</v>
@@ -3409,10 +3409,10 @@
         <v>3.45</v>
       </c>
       <c r="T22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
         <v>1.22</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G23" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="J23" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="T23" t="n">
         <v>1.89</v>
       </c>
       <c r="U23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.89</v>
       </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL23" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G24" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3664,7 +3664,7 @@
         <v>1.01</v>
       </c>
       <c r="O24" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
         <v>1.25</v>
@@ -3673,10 +3673,10 @@
         <v>1.39</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3688,7 +3688,7 @@
         <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="G25" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.41</v>
@@ -3796,34 +3796,34 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
         <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X25" t="n">
         <v>980</v>
@@ -3835,19 +3835,19 @@
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
         <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
         <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF25" t="n">
         <v>980</v>
@@ -3859,7 +3859,7 @@
         <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="n">
         <v>980</v>
@@ -3877,7 +3877,7 @@
         <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -3913,16 +3913,16 @@
         <v>2.16</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
         <v>4.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
         <v>1.41</v>
@@ -3937,22 +3937,22 @@
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
         <v>2.18</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="n">
         <v>1.77</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="V26" t="n">
         <v>1.31</v>
@@ -3964,7 +3964,7 @@
         <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
         <v>980</v>
@@ -3973,16 +3973,16 @@
         <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD26" t="n">
         <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
         <v>980</v>
@@ -4045,25 +4045,25 @@
         <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
         <v>2.9</v>
@@ -4075,13 +4075,13 @@
         <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
         <v>1.83</v>
@@ -4090,7 +4090,7 @@
         <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W27" t="n">
         <v>1.64</v>
@@ -4105,7 +4105,7 @@
         <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
         <v>980</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
         <v>2.04</v>
@@ -4225,10 +4225,10 @@
         <v>1.78</v>
       </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X28" t="n">
         <v>13</v>
@@ -4255,10 +4255,10 @@
         <v>120</v>
       </c>
       <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>29</v>
@@ -4267,7 +4267,7 @@
         <v>130</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
         <v>28</v>
@@ -4279,7 +4279,7 @@
         <v>220</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>180</v>
@@ -4312,58 +4312,58 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.2</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4477,13 +4477,13 @@
         <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
         <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S30" t="n">
         <v>3.05</v>
@@ -4495,19 +4495,19 @@
         <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="X30" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
         <v>19.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
         <v>85</v>
@@ -4525,31 +4525,31 @@
         <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK30" t="n">
         <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
         <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>55</v>
@@ -4585,10 +4585,10 @@
         <v>2.22</v>
       </c>
       <c r="G31" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
         <v>3.95</v>
@@ -4603,7 +4603,7 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
         <v>3.15</v>
@@ -4615,10 +4615,10 @@
         <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S31" t="n">
         <v>3.95</v>
@@ -4630,10 +4630,10 @@
         <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="X31" t="n">
         <v>14.5</v>
@@ -4648,7 +4648,7 @@
         <v>90</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC31" t="n">
         <v>9.199999999999999</v>
@@ -4660,13 +4660,13 @@
         <v>60</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
         <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
         <v>75</v>
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G32" t="n">
         <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="I32" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>2.16</v>
+        <v>3.2</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.7</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.6</v>
       </c>
       <c r="W32" t="n">
         <v>1.48</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA32" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF32" t="n">
         <v>36</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AG32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK32" t="n">
         <v>32</v>
       </c>
-      <c r="AG32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>980</v>
-      </c>
       <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
         <v>50</v>
       </c>
-      <c r="AM32" t="n">
-        <v>100</v>
-      </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO32" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="G33" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="H33" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="T33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.4</v>
       </c>
-      <c r="U33" t="n">
-        <v>3</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="X33" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z33" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA33" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF33" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM33" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.12</v>
+        <v>2.76</v>
       </c>
       <c r="G34" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>2.66</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="T34" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="X34" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB34" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG34" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G35" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
         <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.45</v>
@@ -5146,7 +5146,7 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="n">
         <v>1.38</v>
@@ -5158,7 +5158,7 @@
         <v>2.1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S35" t="n">
         <v>3.9</v>
@@ -5170,10 +5170,10 @@
         <v>1.94</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X35" t="n">
         <v>14.5</v>
@@ -5182,16 +5182,16 @@
         <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
         <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
         <v>18.5</v>
@@ -5200,10 +5200,10 @@
         <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
         <v>24</v>
@@ -5212,10 +5212,10 @@
         <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL35" t="n">
         <v>55</v>
@@ -5224,10 +5224,10 @@
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5263,31 +5263,31 @@
         <v>1.97</v>
       </c>
       <c r="H36" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
         <v>5.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O36" t="n">
         <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="Q36" t="n">
         <v>1.59</v>
@@ -5305,7 +5305,7 @@
         <v>2.3</v>
       </c>
       <c r="V36" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
         <v>2.02</v>
@@ -5395,13 +5395,13 @@
         <v>5.1</v>
       </c>
       <c r="G37" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I37" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J37" t="n">
         <v>4.5</v>
@@ -5410,7 +5410,7 @@
         <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5422,7 +5422,7 @@
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q37" t="n">
         <v>1.55</v>
@@ -5440,7 +5440,7 @@
         <v>2.52</v>
       </c>
       <c r="V37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="W37" t="n">
         <v>1.23</v>
@@ -5494,7 +5494,7 @@
         <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO37" t="n">
         <v>6.8</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="G38" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H38" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="I38" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J38" t="n">
         <v>2.88</v>
       </c>
       <c r="K38" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5575,10 +5575,10 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W38" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.34</v>
+        <v>1.09</v>
       </c>
       <c r="G39" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I39" t="n">
         <v>3.4</v>
@@ -5677,7 +5677,7 @@
         <v>2.88</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>980</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5689,19 +5689,19 @@
         <v>1.72</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P39" t="n">
         <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
         <v>1.09</v>
       </c>
       <c r="S39" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W39" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H40" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
         <v>3.15</v>
@@ -5821,37 +5821,37 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
         <v>1.84</v>
       </c>
       <c r="U40" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V40" t="n">
         <v>1.44</v>
       </c>
       <c r="W40" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X40" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y40" t="n">
         <v>980</v>
@@ -5896,7 +5896,7 @@
         <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
         <v>980</v>
@@ -5935,7 +5935,7 @@
         <v>1.82</v>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
@@ -5944,34 +5944,34 @@
         <v>4.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>6.6</v>
+        <v>950</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>4.2</v>
+        <v>2.04</v>
       </c>
       <c r="O41" t="n">
         <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q41" t="n">
         <v>1.6</v>
       </c>
       <c r="R41" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="S41" t="n">
-        <v>1.6</v>
+        <v>2.44</v>
       </c>
       <c r="T41" t="n">
         <v>1.04</v>
@@ -5983,7 +5983,7 @@
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G42" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H42" t="n">
         <v>6.2</v>
@@ -6082,7 +6082,7 @@
         <v>4.5</v>
       </c>
       <c r="K42" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.27</v>
@@ -6091,34 +6091,34 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
         <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="Q42" t="n">
         <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S42" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T42" t="n">
         <v>1.74</v>
       </c>
       <c r="U42" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V42" t="n">
         <v>1.16</v>
       </c>
       <c r="W42" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="X42" t="n">
         <v>980</v>
@@ -6133,7 +6133,7 @@
         <v>200</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC42" t="n">
         <v>11.5</v>
@@ -6154,7 +6154,7 @@
         <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
         <v>15.5</v>
@@ -6163,7 +6163,7 @@
         <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
         <v>110</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G43" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I43" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
@@ -6235,16 +6235,16 @@
         <v>1.71</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U43" t="n">
         <v>1.9</v>
@@ -6253,13 +6253,13 @@
         <v>1.27</v>
       </c>
       <c r="W43" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z43" t="n">
         <v>980</v>
@@ -6268,19 +6268,19 @@
         <v>120</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD43" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG43" t="n">
         <v>11.5</v>
@@ -6289,7 +6289,7 @@
         <v>22</v>
       </c>
       <c r="AI43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="n">
         <v>980</v>
@@ -6307,7 +6307,7 @@
         <v>21</v>
       </c>
       <c r="AO43" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G44" t="n">
         <v>2.26</v>
@@ -6346,7 +6346,7 @@
         <v>4.3</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J44" t="n">
         <v>3.05</v>
@@ -6361,10 +6361,10 @@
         <v>1.14</v>
       </c>
       <c r="N44" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O44" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P44" t="n">
         <v>1.54</v>
@@ -6481,7 +6481,7 @@
         <v>29</v>
       </c>
       <c r="I45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J45" t="n">
         <v>11</v>
@@ -6496,28 +6496,28 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
       </c>
       <c r="P45" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="Q45" t="n">
         <v>1.4</v>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S45" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T45" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U45" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V45" t="n">
         <v>1.02</v>
@@ -6532,7 +6532,7 @@
         <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
@@ -6541,7 +6541,7 @@
         <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AD45" t="n">
         <v>1000</v>
@@ -6559,7 +6559,7 @@
         <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
         <v>8.199999999999999</v>
@@ -6571,10 +6571,10 @@
         <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Union San Felipe</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.04</v>
       </c>
-      <c r="G46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.91</v>
-      </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J46" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="O46" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.1</v>
+        <v>1.64</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.32</v>
+        <v>1.89</v>
       </c>
       <c r="R46" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="S46" t="n">
-        <v>1.32</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W46" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,55 +6733,55 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Union San Felipe</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="G47" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="H47" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R47" t="n">
         <v>1.09</v>
       </c>
-      <c r="I47" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>950</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S47" t="n">
-        <v>2.82</v>
+        <v>1.32</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6790,10 +6790,10 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W47" t="n">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,55 +6868,55 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.26</v>
+        <v>2.16</v>
       </c>
       <c r="G48" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="H48" t="n">
-        <v>3.65</v>
+        <v>1.09</v>
       </c>
       <c r="I48" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J48" t="n">
         <v>3.3</v>
       </c>
       <c r="K48" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R48" t="n">
         <v>1.36</v>
       </c>
-      <c r="P48" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S48" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -6925,55 +6925,55 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="W48" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,60 +6998,60 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Zamora FC</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="G49" t="n">
-        <v>1.74</v>
+        <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>5.7</v>
+        <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R49" t="n">
         <v>1.09</v>
       </c>
-      <c r="K49" t="n">
-        <v>980</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S49" t="n">
-        <v>3.55</v>
+        <v>1.48</v>
       </c>
       <c r="T49" t="n">
         <v>1.01</v>
@@ -7063,7 +7063,7 @@
         <v>1.01</v>
       </c>
       <c r="W49" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G50" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="I50" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.45</v>
+        <v>3.35</v>
       </c>
       <c r="R50" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,123 +7268,123 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="G51" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="H51" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M51" t="n">
         <v>1.09</v>
       </c>
-      <c r="I51" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N51" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="O51" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P51" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="R51" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V51" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W51" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z51" t="n">
         <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL51" t="n">
         <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,120 +7403,120 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.35</v>
+        <v>1.89</v>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="H52" t="n">
-        <v>2.26</v>
+        <v>4.7</v>
       </c>
       <c r="I52" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L52" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>1.53</v>
+        <v>2.84</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P52" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="R52" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V52" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>1.31</v>
+        <v>1.98</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN52" t="n">
         <v>1000</v>
@@ -7528,7 +7528,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Club 2 de Mayo de Pedro</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.8</v>
+        <v>1.71</v>
       </c>
       <c r="G53" t="n">
-        <v>3.55</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>2.64</v>
+        <v>1.09</v>
       </c>
       <c r="I53" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="J53" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="O53" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.14</v>
+        <v>1.36</v>
       </c>
       <c r="R53" t="n">
         <v>1.23</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="W53" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="X53" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,60 +7673,60 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="G54" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="I54" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="K54" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="P54" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="R54" t="n">
         <v>1.21</v>
       </c>
       <c r="S54" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
@@ -7735,16 +7735,16 @@
         <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="W54" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z54" t="n">
         <v>1000</v>
@@ -7753,13 +7753,13 @@
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
@@ -7798,135 +7798,675 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>21:35:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>2025-10-31</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Necaxa</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Santos Laguna</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="F59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G59" t="n">
         <v>1.64</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H59" t="n">
         <v>5.4</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I59" t="n">
         <v>6.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J59" t="n">
         <v>4.7</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K59" t="n">
         <v>5.3</v>
       </c>
-      <c r="L55" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N55" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O55" t="n">
+      <c r="L59" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O59" t="n">
         <v>1.16</v>
       </c>
-      <c r="P55" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T55" t="n">
+      <c r="P59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T59" t="n">
         <v>1.6</v>
       </c>
-      <c r="U55" t="n">
+      <c r="U59" t="n">
         <v>2.42</v>
       </c>
-      <c r="V55" t="n">
+      <c r="V59" t="n">
         <v>1.19</v>
       </c>
-      <c r="W55" t="n">
+      <c r="W59" t="n">
         <v>2.56</v>
       </c>
-      <c r="X55" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z55" t="n">
+      <c r="X59" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z59" t="n">
         <v>55</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AA59" t="n">
         <v>150</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AB59" t="n">
         <v>14</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AC59" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD55" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE55" t="n">
+      <c r="AD59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE59" t="n">
         <v>60</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AF59" t="n">
         <v>13</v>
       </c>
-      <c r="AG55" t="n">
+      <c r="AG59" t="n">
         <v>11</v>
       </c>
-      <c r="AH55" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI55" t="n">
+      <c r="AH59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI59" t="n">
         <v>55</v>
       </c>
-      <c r="AJ55" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM55" t="n">
+      <c r="AJ59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM59" t="n">
         <v>65</v>
       </c>
-      <c r="AN55" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO55" t="n">
+      <c r="AN59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO59" t="n">
         <v>980</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-31.xlsx
@@ -670,67 +670,67 @@
         <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
         <v>1.94</v>
       </c>
       <c r="I2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.02</v>
       </c>
-      <c r="V2" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -742,7 +742,7 @@
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>32</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
         <v>110</v>
@@ -766,7 +766,7 @@
         <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
         <v>70</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
         <v>1.71</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="U3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="V3" t="n">
         <v>1.26</v>
@@ -868,31 +868,31 @@
         <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
         <v>15</v>
@@ -904,7 +904,7 @@
         <v>38</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
@@ -955,52 +955,52 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1009,13 +1009,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>14.5</v>
@@ -1027,19 +1027,19 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="n">
         <v>38</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
         <v>12.5</v>
@@ -1075,79 +1075,79 @@
         <v>1.42</v>
       </c>
       <c r="G5" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.24</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>6.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
         <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
         <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>14</v>
       </c>
-      <c r="AK5" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>1.24</v>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
         <v>7.4</v>
@@ -1225,7 +1225,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1240,25 +1240,25 @@
         <v>3.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
@@ -1270,10 +1270,10 @@
         <v>160</v>
       </c>
       <c r="AA6" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>18.5</v>
@@ -1282,7 +1282,7 @@
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
         <v>1.1</v>
@@ -1390,10 +1390,10 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="H8" t="n">
         <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>2.86</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>1.66</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,43 +1615,43 @@
         <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
         <v>1.75</v>
@@ -1663,10 +1663,10 @@
         <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1678,10 +1678,10 @@
         <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
@@ -1690,13 +1690,13 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1768,7 +1768,7 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>1.1</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
         <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1918,49 +1918,49 @@
         <v>1.46</v>
       </c>
       <c r="R11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
         <v>1.99</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="n">
-        <v>930</v>
+        <v>880</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>270</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
@@ -1972,10 +1972,10 @@
         <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
@@ -1984,10 +1984,10 @@
         <v>980</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12">
@@ -2017,34 +2017,34 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
         <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
         <v>1.1</v>
@@ -2065,64 +2065,64 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
         <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
         <v>2.04</v>
@@ -2203,10 +2203,10 @@
         <v>1.51</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
         <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
         <v>1.04</v>
@@ -2338,61 +2338,61 @@
         <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +2437,7 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2449,13 +2449,13 @@
         <v>2.08</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P15" t="n">
         <v>1.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R15" t="n">
         <v>1.15</v>
@@ -2470,61 +2470,61 @@
         <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
         <v>1.94</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.16</v>
       </c>
       <c r="G16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>22</v>
@@ -2569,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K16" t="n">
         <v>11</v>
@@ -2578,16 +2578,16 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q16" t="n">
         <v>1.47</v>
@@ -2596,7 +2596,7 @@
         <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>2.34</v>
@@ -2608,7 +2608,7 @@
         <v>1.03</v>
       </c>
       <c r="W16" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2647,7 +2647,7 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
         <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H18" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
         <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
         <v>1.65</v>
@@ -2878,7 +2878,7 @@
         <v>1.47</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -2890,7 +2890,7 @@
         <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
@@ -2899,7 +2899,7 @@
         <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>34</v>
@@ -2914,25 +2914,25 @@
         <v>16.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="I19" t="n">
         <v>2.46</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
         <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T19" t="n">
         <v>1.04</v>
@@ -3013,7 +3013,7 @@
         <v>1.68</v>
       </c>
       <c r="W19" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3031,7 +3031,7 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="G20" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
         <v>1.57</v>
       </c>
       <c r="I20" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3256,10 +3256,10 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
         <v>1.87</v>
@@ -3268,76 +3268,76 @@
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
         <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
         <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>1.32</v>
@@ -3391,43 +3391,43 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
         <v>1.66</v>
       </c>
       <c r="R22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S22" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T22" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
         <v>50</v>
@@ -3436,43 +3436,43 @@
         <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3502,61 +3502,61 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
         <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
         <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
         <v>1.89</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
         <v>16.5</v>
@@ -3565,7 +3565,7 @@
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3589,25 +3589,25 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AK23" t="n">
         <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
         <v>3.4</v>
@@ -3646,10 +3646,10 @@
         <v>2.28</v>
       </c>
       <c r="I24" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>3.8</v>
@@ -3685,13 +3685,13 @@
         <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W24" t="n">
         <v>1.41</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
@@ -3700,49 +3700,49 @@
         <v>16</v>
       </c>
       <c r="AA24" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>1.48</v>
+        <v>2.48</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>1.57</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W26" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G27" t="n">
         <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>2.04</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="R27" t="n">
         <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T27" t="n">
         <v>1.66</v>
@@ -4090,52 +4090,52 @@
         <v>2.22</v>
       </c>
       <c r="V27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W27" t="n">
         <v>1.96</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>420</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
         <v>980</v>
@@ -4144,10 +4144,10 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4180,19 +4180,19 @@
         <v>1.44</v>
       </c>
       <c r="G28" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H28" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I28" t="n">
         <v>8.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4210,10 +4210,10 @@
         <v>2.36</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
         <v>2.58</v>
@@ -4222,13 +4222,13 @@
         <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X28" t="n">
         <v>980</v>
@@ -4237,34 +4237,34 @@
         <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
         <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>130</v>
+        <v>460</v>
       </c>
       <c r="AF28" t="n">
         <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="AJ28" t="n">
         <v>980</v>
@@ -4276,13 +4276,13 @@
         <v>980</v>
       </c>
       <c r="AM28" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO28" t="n">
         <v>140</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.9</v>
+        <v>2.32</v>
       </c>
       <c r="G29" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="I29" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>2.12</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>980</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,85 +4336,85 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="T29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
         <v>1.03</v>
       </c>
       <c r="V29" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W29" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="X29" t="n">
         <v>980</v>
       </c>
       <c r="Y29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
         <v>980</v>
       </c>
       <c r="AD29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AO29" t="n">
         <v>980</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H30" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I30" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="J30" t="n">
         <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,88 +4471,88 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S30" t="n">
         <v>2.28</v>
       </c>
       <c r="T30" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
         <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31">
@@ -4582,64 +4582,64 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G31" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I31" t="n">
         <v>5.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.37</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>2.78</v>
+        <v>1.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.94</v>
+        <v>1.39</v>
       </c>
       <c r="R31" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V31" t="n">
         <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,10 +4648,10 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4663,19 +4663,19 @@
         <v>12.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G32" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
         <v>3.25</v>
@@ -4741,40 +4741,40 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
         <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X32" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Z32" t="n">
         <v>980</v>
@@ -4783,13 +4783,13 @@
         <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE32" t="n">
         <v>980</v>
@@ -4816,13 +4816,13 @@
         <v>980</v>
       </c>
       <c r="AM32" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="n">
         <v>980</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -4852,40 +4852,40 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G33" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O33" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
         <v>1.26</v>
@@ -4900,10 +4900,10 @@
         <v>1.9</v>
       </c>
       <c r="V33" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X33" t="n">
         <v>13.5</v>
@@ -4915,7 +4915,7 @@
         <v>980</v>
       </c>
       <c r="AA33" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="AB33" t="n">
         <v>10.5</v>
@@ -4924,10 +4924,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="n">
         <v>980</v>
@@ -4936,28 +4936,28 @@
         <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AJ33" t="n">
         <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AM33" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO33" t="n">
         <v>160</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4987,40 +4987,40 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O34" t="n">
         <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R34" t="n">
         <v>1.24</v>
@@ -5035,13 +5035,13 @@
         <v>1.81</v>
       </c>
       <c r="V34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="X34" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Y34" t="n">
         <v>980</v>
@@ -5050,7 +5050,7 @@
         <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB34" t="n">
         <v>8.800000000000001</v>
@@ -5092,7 +5092,7 @@
         <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -5122,103 +5122,103 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O35" t="n">
         <v>1.51</v>
       </c>
       <c r="P35" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U35" t="n">
         <v>1.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X35" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z35" t="n">
         <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AD35" t="n">
         <v>980</v>
       </c>
       <c r="AE35" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
       <c r="AF35" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="n">
         <v>980</v>
       </c>
       <c r="AI35" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="AJ35" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AL35" t="n">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5260,22 +5260,22 @@
         <v>4.1</v>
       </c>
       <c r="G36" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I36" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J36" t="n">
         <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5287,7 +5287,7 @@
         <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q36" t="n">
         <v>2.04</v>
@@ -5299,70 +5299,70 @@
         <v>3.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U36" t="n">
         <v>1.96</v>
       </c>
       <c r="V36" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W36" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB36" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF36" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG36" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AJ36" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AK36" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="n">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="AO36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -5392,40 +5392,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G37" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P37" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R37" t="n">
         <v>1.24</v>
@@ -5434,25 +5434,25 @@
         <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V37" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5470,19 +5470,19 @@
         <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
         <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ37" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="n">
         <v>40</v>
@@ -5497,7 +5497,7 @@
         <v>38</v>
       </c>
       <c r="AO37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="G38" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="J38" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
         <v>1.45</v>
@@ -5557,10 +5557,10 @@
         <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R38" t="n">
         <v>1.2</v>
@@ -5569,61 +5569,61 @@
         <v>4.3</v>
       </c>
       <c r="T38" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="V38" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z38" t="n">
         <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB38" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
         <v>980</v>
       </c>
       <c r="AE38" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="n">
         <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ38" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK38" t="n">
         <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
@@ -5632,7 +5632,7 @@
         <v>980</v>
       </c>
       <c r="AO38" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -5665,10 +5665,10 @@
         <v>2.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I39" t="n">
         <v>4.6</v>
@@ -5677,7 +5677,7 @@
         <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5689,7 +5689,7 @@
         <v>2.42</v>
       </c>
       <c r="O39" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5710,61 +5710,61 @@
         <v>1.67</v>
       </c>
       <c r="V39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W39" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X39" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AE39" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="n">
-        <v>130</v>
+        <v>540</v>
       </c>
       <c r="AJ39" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AL39" t="n">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="AM39" t="n">
         <v>290</v>
       </c>
       <c r="AN39" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AO39" t="n">
         <v>170</v>
@@ -5800,19 +5800,19 @@
         <v>2.02</v>
       </c>
       <c r="G40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L40" t="n">
         <v>1.49</v>
@@ -5830,7 +5830,7 @@
         <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
@@ -5842,67 +5842,67 @@
         <v>1.98</v>
       </c>
       <c r="U40" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V40" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W40" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z40" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA40" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB40" t="n">
         <v>7.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE40" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG40" t="n">
         <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AJ40" t="n">
         <v>27</v>
       </c>
       <c r="AK40" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL40" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
         <v>22</v>
       </c>
       <c r="AO40" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G41" t="n">
         <v>2.36</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>3.35</v>
@@ -5971,7 +5971,7 @@
         <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T41" t="n">
         <v>1.98</v>
@@ -5980,46 +5980,46 @@
         <v>1.87</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W41" t="n">
         <v>1.73</v>
       </c>
       <c r="X41" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
         <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB41" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD41" t="n">
         <v>980</v>
       </c>
       <c r="AE41" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AF41" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG41" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
         <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="AJ41" t="n">
         <v>980</v>
@@ -6031,13 +6031,13 @@
         <v>980</v>
       </c>
       <c r="AM41" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
         <v>980</v>
       </c>
       <c r="AO41" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="G42" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="K42" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6103,13 +6103,13 @@
         <v>1.01</v>
       </c>
       <c r="R42" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S42" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T42" t="n">
-        <v>1.03</v>
+        <v>1.41</v>
       </c>
       <c r="U42" t="n">
         <v>1.03</v>
@@ -6121,58 +6121,58 @@
         <v>1.01</v>
       </c>
       <c r="X42" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN42" t="n">
         <v>55</v>
       </c>
-      <c r="Y42" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AO42" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43">
@@ -6211,7 +6211,7 @@
         <v>3.95</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J43" t="n">
         <v>3.6</v>
@@ -6226,16 +6226,16 @@
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O43" t="n">
         <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R43" t="n">
         <v>1.41</v>
@@ -6244,13 +6244,13 @@
         <v>3.05</v>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
         <v>2.18</v>
       </c>
       <c r="V43" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W43" t="n">
         <v>1.94</v>
@@ -6259,55 +6259,55 @@
         <v>17</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z43" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="n">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="AB43" t="n">
         <v>10.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF43" t="n">
         <v>14</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ43" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL43" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM43" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO43" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44">
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.08</v>
       </c>
-      <c r="G44" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>1.32</v>
@@ -6361,40 +6361,40 @@
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.32</v>
       </c>
-      <c r="P44" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S44" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U44" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="W44" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z44" t="n">
         <v>1000</v>
@@ -6403,22 +6403,22 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
         <v>1000</v>
@@ -6427,10 +6427,10 @@
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL44" t="n">
         <v>1000</v>
@@ -6439,7 +6439,7 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,58 +6472,58 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G45" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H45" t="n">
         <v>5.2</v>
       </c>
       <c r="I45" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J45" t="n">
         <v>3.6</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O45" t="n">
         <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R45" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T45" t="n">
         <v>2.06</v>
       </c>
       <c r="U45" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V45" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W45" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X45" t="n">
         <v>11.5</v>
@@ -6532,7 +6532,7 @@
         <v>16</v>
       </c>
       <c r="Z45" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AA45" t="n">
         <v>200</v>
@@ -6544,10 +6544,10 @@
         <v>8.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>120</v>
+        <v>470</v>
       </c>
       <c r="AF45" t="n">
         <v>10.5</v>
@@ -6556,22 +6556,22 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI45" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="AJ45" t="n">
         <v>21</v>
       </c>
       <c r="AK45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL45" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AM45" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
         <v>19</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="G46" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="H46" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="I46" t="n">
         <v>1000</v>
       </c>
       <c r="J46" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="K46" t="n">
         <v>1000</v>
@@ -6634,7 +6634,7 @@
         <v>1.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P46" t="n">
         <v>1.16</v>
@@ -6643,13 +6643,13 @@
         <v>1.01</v>
       </c>
       <c r="R46" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="T46" t="n">
-        <v>1.41</v>
+        <v>1.03</v>
       </c>
       <c r="U46" t="n">
         <v>1.03</v>
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G47" t="n">
-        <v>1000</v>
+        <v>1.45</v>
       </c>
       <c r="H47" t="n">
-        <v>1.04</v>
+        <v>6.4</v>
       </c>
       <c r="I47" t="n">
         <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="K47" t="n">
         <v>1000</v>
@@ -6769,7 +6769,7 @@
         <v>1.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P47" t="n">
         <v>1.16</v>
@@ -6778,10 +6778,10 @@
         <v>1.01</v>
       </c>
       <c r="R47" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S47" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="T47" t="n">
         <v>1.03</v>
@@ -6796,58 +6796,58 @@
         <v>1.01</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
-        <v>1.43</v>
+        <v>2.5</v>
       </c>
       <c r="I48" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="J48" t="n">
-        <v>1.43</v>
+        <v>4.2</v>
       </c>
       <c r="K48" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6907,82 +6907,82 @@
         <v>1.1</v>
       </c>
       <c r="P48" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Q48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V48" t="n">
         <v>1.01</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.52</v>
       </c>
       <c r="W48" t="n">
         <v>1.01</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="I49" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J49" t="n">
-        <v>2.14</v>
+        <v>4.5</v>
       </c>
       <c r="K49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7048,13 +7048,13 @@
         <v>1.01</v>
       </c>
       <c r="R49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="T49" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U49" t="n">
         <v>1.03</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G50" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="H50" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="K50" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,7 +7171,7 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O50" t="n">
         <v>1.09</v>
@@ -7183,16 +7183,16 @@
         <v>1.01</v>
       </c>
       <c r="R50" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="S50" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V50" t="n">
         <v>1.01</v>
@@ -7201,58 +7201,58 @@
         <v>1.01</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE50" t="n">
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="51">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G51" t="n">
         <v>2.32</v>
@@ -7291,10 +7291,10 @@
         <v>2.9</v>
       </c>
       <c r="I51" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J51" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K51" t="n">
         <v>4.9</v>
@@ -7303,31 +7303,31 @@
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N51" t="n">
         <v>1.1</v>
       </c>
       <c r="O51" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P51" t="n">
         <v>1.16</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R51" t="n">
-        <v>1.7</v>
+        <v>1.08</v>
       </c>
       <c r="S51" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="T51" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="U51" t="n">
-        <v>2.92</v>
+        <v>1.03</v>
       </c>
       <c r="V51" t="n">
         <v>1.01</v>
@@ -7339,55 +7339,55 @@
         <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG51" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK51" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL51" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AM51" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN51" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AO51" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H52" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J52" t="n">
         <v>10.5</v>
@@ -7441,13 +7441,13 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P52" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q52" t="n">
         <v>1.3</v>
@@ -7456,73 +7456,73 @@
         <v>2.18</v>
       </c>
       <c r="S52" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="T52" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U52" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W52" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X52" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y52" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Z52" t="n">
+        <v>260</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI52" t="n">
         <v>220</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>180</v>
       </c>
       <c r="AJ52" t="n">
         <v>12</v>
       </c>
       <c r="AK52" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AL52" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM52" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN52" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AO52" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H53" t="n">
         <v>2.24</v>
@@ -7564,7 +7564,7 @@
         <v>2.42</v>
       </c>
       <c r="J53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>4.4</v>
@@ -7585,10 +7585,10 @@
         <v>3.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R53" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="S53" t="n">
         <v>1.96</v>
@@ -7600,10 +7600,10 @@
         <v>3.1</v>
       </c>
       <c r="V53" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W53" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X53" t="n">
         <v>46</v>
@@ -7621,7 +7621,7 @@
         <v>30</v>
       </c>
       <c r="AC53" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD53" t="n">
         <v>16</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G54" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I54" t="n">
         <v>3.45</v>
       </c>
       <c r="J54" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7717,79 +7717,79 @@
         <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S54" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="T54" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U54" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V54" t="n">
         <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X54" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y54" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z54" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA54" t="n">
-        <v>60</v>
+        <v>530</v>
       </c>
       <c r="AB54" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AE54" t="n">
         <v>980</v>
       </c>
       <c r="AF54" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AG54" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH54" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI54" t="n">
         <v>980</v>
       </c>
       <c r="AJ54" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AK54" t="n">
         <v>980</v>
       </c>
       <c r="AL54" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM54" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO54" t="n">
         <v>980</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G55" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H55" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I55" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J55" t="n">
         <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7852,82 +7852,82 @@
         <v>1.23</v>
       </c>
       <c r="P55" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R55" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S55" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U55" t="n">
         <v>2.38</v>
       </c>
       <c r="V55" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W55" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X55" t="n">
         <v>24</v>
       </c>
       <c r="Y55" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA55" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC55" t="n">
         <v>9.4</v>
       </c>
       <c r="AD55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE55" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF55" t="n">
         <v>22</v>
       </c>
       <c r="AG55" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH55" t="n">
         <v>16.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ55" t="n">
         <v>44</v>
       </c>
       <c r="AK55" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL55" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM55" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN55" t="n">
         <v>24</v>
       </c>
       <c r="AO55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="G56" t="n">
         <v>2.18</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I56" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
         <v>3.2</v>
       </c>
       <c r="K56" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7981,37 +7981,37 @@
         <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O56" t="n">
         <v>1.31</v>
       </c>
       <c r="P56" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R56" t="n">
         <v>1.29</v>
       </c>
       <c r="S56" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U56" t="n">
         <v>1.03</v>
       </c>
       <c r="V56" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W56" t="n">
         <v>1.84</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y56" t="n">
         <v>1000</v>
@@ -8026,7 +8026,7 @@
         <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD56" t="n">
         <v>1000</v>
@@ -8041,7 +8041,7 @@
         <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
@@ -8062,7 +8062,7 @@
         <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="G57" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="H57" t="n">
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K57" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8131,7 +8131,7 @@
         <v>1.54</v>
       </c>
       <c r="S57" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="T57" t="n">
         <v>1.6</v>
@@ -8140,10 +8140,10 @@
         <v>2.32</v>
       </c>
       <c r="V57" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W57" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
         <v>980</v>
@@ -8155,19 +8155,19 @@
         <v>980</v>
       </c>
       <c r="AA57" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
       <c r="AB57" t="n">
         <v>980</v>
       </c>
       <c r="AC57" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD57" t="n">
         <v>980</v>
       </c>
       <c r="AE57" t="n">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="n">
         <v>980</v>
@@ -8179,7 +8179,7 @@
         <v>980</v>
       </c>
       <c r="AI57" t="n">
-        <v>48</v>
+        <v>430</v>
       </c>
       <c r="AJ57" t="n">
         <v>980</v>
@@ -8191,10 +8191,10 @@
         <v>980</v>
       </c>
       <c r="AM57" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN57" t="n">
         <v>85</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>980</v>
       </c>
       <c r="AO57" t="n">
         <v>980</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G58" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J58" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K58" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8251,19 +8251,19 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="O58" t="n">
         <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>1.54</v>
+        <v>1.06</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S58" t="n">
         <v>2.06</v>
@@ -8275,58 +8275,58 @@
         <v>1.03</v>
       </c>
       <c r="V58" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W58" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF58" t="n">
         <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM58" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN58" t="n">
         <v>1000</v>
@@ -8368,10 +8368,10 @@
         <v>5.4</v>
       </c>
       <c r="H59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I59" t="n">
         <v>1.69</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.7</v>
       </c>
       <c r="J59" t="n">
         <v>4.5</v>
@@ -8380,7 +8380,7 @@
         <v>4.6</v>
       </c>
       <c r="L59" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8389,28 +8389,28 @@
         <v>6.2</v>
       </c>
       <c r="O59" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P59" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R59" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S59" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U59" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V59" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W59" t="n">
         <v>1.22</v>
@@ -8425,13 +8425,13 @@
         <v>12.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC59" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD59" t="n">
         <v>10.5</v>
@@ -8440,25 +8440,25 @@
         <v>15</v>
       </c>
       <c r="AF59" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG59" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH59" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ59" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK59" t="n">
         <v>55</v>
       </c>
       <c r="AL59" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM59" t="n">
         <v>65</v>
@@ -8467,7 +8467,7 @@
         <v>40</v>
       </c>
       <c r="AO59" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="60">
@@ -8497,46 +8497,46 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G60" t="n">
-        <v>5.2</v>
+        <v>600</v>
       </c>
       <c r="H60" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I60" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J60" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K60" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="O60" t="n">
         <v>1.01</v>
       </c>
       <c r="P60" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="R60" t="n">
         <v>1.09</v>
       </c>
       <c r="S60" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="T60" t="n">
         <v>1.03</v>
@@ -8545,10 +8545,10 @@
         <v>1.03</v>
       </c>
       <c r="V60" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W60" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8638,22 +8638,22 @@
         <v>3.15</v>
       </c>
       <c r="H61" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K61" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L61" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M61" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
@@ -8662,10 +8662,10 @@
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="R61" t="n">
         <v>1.25</v>
@@ -8680,7 +8680,7 @@
         <v>1.94</v>
       </c>
       <c r="V61" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W61" t="n">
         <v>1.47</v>
@@ -8689,7 +8689,7 @@
         <v>13</v>
       </c>
       <c r="Y61" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z61" t="n">
         <v>22</v>
@@ -8722,10 +8722,10 @@
         <v>60</v>
       </c>
       <c r="AJ61" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK61" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AL61" t="n">
         <v>60</v>
@@ -8737,7 +8737,7 @@
         <v>42</v>
       </c>
       <c r="AO61" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G62" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="H62" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I62" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J62" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K62" t="n">
         <v>3.3</v>
@@ -8791,7 +8791,7 @@
         <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O62" t="n">
         <v>1.39</v>
@@ -8800,7 +8800,7 @@
         <v>1.74</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R62" t="n">
         <v>1.28</v>
@@ -8809,64 +8809,64 @@
         <v>3.95</v>
       </c>
       <c r="T62" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U62" t="n">
         <v>2.02</v>
       </c>
       <c r="V62" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W62" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X62" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y62" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z62" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG62" t="n">
         <v>26</v>
       </c>
-      <c r="AA62" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>15</v>
-      </c>
       <c r="AH62" t="n">
         <v>980</v>
       </c>
       <c r="AI62" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AJ62" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AK62" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AL62" t="n">
         <v>980</v>
       </c>
       <c r="AM62" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN62" t="n">
         <v>980</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="G63" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J63" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8926,16 +8926,16 @@
         <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O63" t="n">
         <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R63" t="n">
         <v>1.47</v>
@@ -8950,10 +8950,10 @@
         <v>2.26</v>
       </c>
       <c r="V63" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W63" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -8968,10 +8968,10 @@
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AD63" t="n">
         <v>1000</v>
@@ -8983,7 +8983,7 @@
         <v>1000</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH63" t="n">
         <v>1000</v>
@@ -9004,7 +9004,7 @@
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G64" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J64" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K64" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L64" t="n">
         <v>1.29</v>
@@ -9064,7 +9064,7 @@
         <v>5.2</v>
       </c>
       <c r="O64" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P64" t="n">
         <v>2.4</v>
@@ -9076,10 +9076,10 @@
         <v>1.56</v>
       </c>
       <c r="S64" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T64" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U64" t="n">
         <v>2.2</v>
@@ -9097,22 +9097,22 @@
         <v>27</v>
       </c>
       <c r="Z64" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AA64" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AB64" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC64" t="n">
         <v>11.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE64" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="n">
         <v>11.5</v>
@@ -9124,25 +9124,25 @@
         <v>21</v>
       </c>
       <c r="AI64" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK64" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL64" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM64" t="n">
         <v>100</v>
       </c>
       <c r="AN64" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO64" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="H65" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
         <v>980</v>
       </c>
       <c r="J65" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K65" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,88 +9196,88 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.9</v>
+        <v>2.92</v>
       </c>
       <c r="O65" t="n">
         <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R65" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="S65" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V65" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="W65" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="X65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z65" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD65" t="n">
         <v>1000</v>
       </c>
       <c r="AE65" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH65" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL65" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM65" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO65" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66">
@@ -9307,112 +9307,112 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G66" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H66" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I66" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J66" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K66" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M66" t="n">
         <v>1.11</v>
       </c>
       <c r="N66" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O66" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P66" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R66" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S66" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="T66" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U66" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="V66" t="n">
         <v>1.22</v>
       </c>
       <c r="W66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X66" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z66" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA66" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB66" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC66" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE66" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="AF66" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI66" t="n">
         <v>130</v>
       </c>
       <c r="AJ66" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK66" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL66" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM66" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN66" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO66" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67">
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G67" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H67" t="n">
         <v>4.3</v>
@@ -9466,37 +9466,37 @@
         <v>1.14</v>
       </c>
       <c r="N67" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O67" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P67" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="R67" t="n">
         <v>1.19</v>
       </c>
       <c r="S67" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T67" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U67" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V67" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W67" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X67" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y67" t="n">
         <v>11</v>
@@ -9511,7 +9511,7 @@
         <v>6.8</v>
       </c>
       <c r="AC67" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD67" t="n">
         <v>18.5</v>
@@ -9520,16 +9520,16 @@
         <v>75</v>
       </c>
       <c r="AF67" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG67" t="n">
         <v>12</v>
       </c>
       <c r="AH67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI67" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="n">
         <v>29</v>
@@ -9541,7 +9541,7 @@
         <v>65</v>
       </c>
       <c r="AM67" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN67" t="n">
         <v>32</v>
@@ -9580,7 +9580,7 @@
         <v>1.11</v>
       </c>
       <c r="G68" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H68" t="n">
         <v>32</v>
@@ -9607,37 +9607,37 @@
         <v>1.14</v>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R68" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S68" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T68" t="n">
         <v>2.66</v>
       </c>
       <c r="U68" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="V68" t="n">
         <v>1.02</v>
       </c>
       <c r="W68" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X68" t="n">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="Y68" t="n">
         <v>1000</v>
       </c>
       <c r="Z68" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AA68" t="n">
         <v>1000</v>
@@ -9655,31 +9655,31 @@
         <v>1000</v>
       </c>
       <c r="AF68" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG68" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH68" t="n">
         <v>85</v>
       </c>
       <c r="AI68" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="AJ68" t="n">
         <v>7.8</v>
       </c>
       <c r="AK68" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL68" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM68" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="AN68" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="AO68" t="n">
         <v>1000</v>
@@ -9712,37 +9712,37 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G69" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J69" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K69" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M69" t="n">
         <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O69" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P69" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q69" t="n">
         <v>2.02</v>
@@ -9754,16 +9754,16 @@
         <v>3.6</v>
       </c>
       <c r="T69" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U69" t="n">
         <v>1.96</v>
       </c>
       <c r="V69" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W69" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X69" t="n">
         <v>14</v>
@@ -9772,25 +9772,25 @@
         <v>15</v>
       </c>
       <c r="Z69" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA69" t="n">
         <v>1000</v>
       </c>
       <c r="AB69" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC69" t="n">
         <v>8.6</v>
       </c>
       <c r="AD69" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE69" t="n">
         <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG69" t="n">
         <v>11.5</v>
@@ -9802,10 +9802,10 @@
         <v>1000</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL69" t="n">
         <v>1000</v>
@@ -9814,7 +9814,7 @@
         <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO69" t="n">
         <v>1000</v>
@@ -9847,25 +9847,25 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>3.15</v>
       </c>
       <c r="I70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J70" t="n">
         <v>3.5</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K70" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L70" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M70" t="n">
         <v>1.06</v>
@@ -9880,7 +9880,7 @@
         <v>2</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R70" t="n">
         <v>1.39</v>
@@ -9895,19 +9895,19 @@
         <v>2.22</v>
       </c>
       <c r="V70" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W70" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X70" t="n">
         <v>17</v>
       </c>
       <c r="Y70" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z70" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA70" t="n">
         <v>1000</v>
@@ -9922,7 +9922,7 @@
         <v>15</v>
       </c>
       <c r="AE70" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF70" t="n">
         <v>16.5</v>
@@ -9934,25 +9934,25 @@
         <v>17.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL70" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM70" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN70" t="n">
         <v>17.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71">
@@ -9991,13 +9991,13 @@
         <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K71" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10006,28 +10006,28 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.65</v>
+        <v>2.48</v>
       </c>
       <c r="O71" t="n">
         <v>1.37</v>
       </c>
       <c r="P71" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R71" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S71" t="n">
         <v>3.3</v>
       </c>
       <c r="T71" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U71" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V71" t="n">
         <v>1.23</v>
@@ -10051,7 +10051,7 @@
         <v>1000</v>
       </c>
       <c r="AC71" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD71" t="n">
         <v>1000</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G72" t="n">
         <v>3.05</v>
       </c>
       <c r="H72" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I72" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="K72" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,34 +10141,34 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="O72" t="n">
         <v>1.01</v>
       </c>
       <c r="P72" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R72" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="S72" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V72" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W72" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10186,7 +10186,7 @@
         <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD72" t="n">
         <v>1000</v>
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="G73" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="I73" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J73" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K73" t="n">
         <v>1000</v>
@@ -10276,34 +10276,34 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R73" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="S73" t="n">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V73" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W73" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10396,16 +10396,16 @@
         <v>6.2</v>
       </c>
       <c r="I74" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J74" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K74" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L74" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M74" t="n">
         <v>1.09</v>
@@ -10423,7 +10423,7 @@
         <v>2.2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S74" t="n">
         <v>4.1</v>
@@ -10435,25 +10435,25 @@
         <v>1.74</v>
       </c>
       <c r="V74" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W74" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X74" t="n">
         <v>12.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AA74" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB74" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC74" t="n">
         <v>9.4</v>
@@ -10462,19 +10462,19 @@
         <v>28</v>
       </c>
       <c r="AE74" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF74" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG74" t="n">
         <v>11</v>
       </c>
       <c r="AH74" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI74" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="AJ74" t="n">
         <v>17.5</v>
@@ -10483,10 +10483,10 @@
         <v>22</v>
       </c>
       <c r="AL74" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM74" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN74" t="n">
         <v>14.5</v>
@@ -10522,46 +10522,46 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G75" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I75" t="n">
         <v>5.9</v>
       </c>
       <c r="J75" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K75" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N75" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O75" t="n">
         <v>1.45</v>
       </c>
       <c r="P75" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q75" t="n">
         <v>2.28</v>
       </c>
       <c r="R75" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S75" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T75" t="n">
         <v>2.06</v>
@@ -10573,58 +10573,58 @@
         <v>1.2</v>
       </c>
       <c r="W75" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X75" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Y75" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z75" t="n">
         <v>980</v>
       </c>
       <c r="AA75" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB75" t="n">
         <v>7</v>
       </c>
       <c r="AC75" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD75" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE75" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="AF75" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH75" t="n">
         <v>980</v>
       </c>
       <c r="AI75" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="AJ75" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK75" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL75" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AM75" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN75" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO75" t="n">
         <v>1000</v>
@@ -10657,13 +10657,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G76" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H76" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I76" t="n">
         <v>6.2</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="H77" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J77" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K77" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10930,19 +10930,19 @@
         <v>1.71</v>
       </c>
       <c r="G78" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H78" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I78" t="n">
         <v>1000</v>
       </c>
       <c r="J78" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="K78" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -10951,34 +10951,34 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>
       </c>
       <c r="P78" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="R78" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="S78" t="n">
         <v>3.3</v>
       </c>
       <c r="T78" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U78" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V78" t="n">
         <v>1.19</v>
       </c>
       <c r="W78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -10996,7 +10996,7 @@
         <v>1000</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD78" t="n">
         <v>1000</v>
@@ -11014,7 +11014,7 @@
         <v>1000</v>
       </c>
       <c r="AI78" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ78" t="n">
         <v>1000</v>
@@ -11026,7 +11026,7 @@
         <v>1000</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN78" t="n">
         <v>1000</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="G79" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="H79" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="I79" t="n">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="J79" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L79" t="n">
         <v>1.42</v>
@@ -11086,7 +11086,7 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O79" t="n">
         <v>1.01</v>
@@ -11095,25 +11095,25 @@
         <v>1.51</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R79" t="n">
         <v>1.16</v>
       </c>
       <c r="S79" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V79" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="W79" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11131,7 +11131,7 @@
         <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD79" t="n">
         <v>1000</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.09</v>
+        <v>1.58</v>
       </c>
       <c r="G80" t="n">
         <v>1.83</v>
       </c>
       <c r="H80" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I80" t="n">
         <v>1000</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K80" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11221,31 +11221,31 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.69</v>
+        <v>2.22</v>
       </c>
       <c r="O80" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P80" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R80" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S80" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="T80" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U80" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V80" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W80" t="n">
         <v>2.2</v>
@@ -11341,13 +11341,13 @@
         <v>2.64</v>
       </c>
       <c r="I81" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J81" t="n">
         <v>2.88</v>
       </c>
       <c r="K81" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
@@ -11356,10 +11356,10 @@
         <v>1.1</v>
       </c>
       <c r="N81" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O81" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P81" t="n">
         <v>1.52</v>
@@ -11371,10 +11371,10 @@
         <v>1.18</v>
       </c>
       <c r="S81" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T81" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U81" t="n">
         <v>1.78</v>
@@ -11383,31 +11383,31 @@
         <v>1.52</v>
       </c>
       <c r="W81" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X81" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z81" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA81" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AB81" t="n">
         <v>9.4</v>
       </c>
       <c r="AC81" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD81" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE81" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF81" t="n">
         <v>21</v>
@@ -11422,22 +11422,22 @@
         <v>70</v>
       </c>
       <c r="AJ81" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK81" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL81" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM81" t="n">
         <v>220</v>
       </c>
       <c r="AN81" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO81" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="82">
@@ -11467,19 +11467,19 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G82" t="n">
         <v>3.45</v>
       </c>
       <c r="H82" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I82" t="n">
         <v>2.68</v>
       </c>
       <c r="J82" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K82" t="n">
         <v>3.25</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G83" t="n">
         <v>3.35</v>
@@ -11614,7 +11614,7 @@
         <v>3.9</v>
       </c>
       <c r="J83" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K83" t="n">
         <v>1000</v>
@@ -11626,7 +11626,7 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="O83" t="n">
         <v>1.01</v>
@@ -11635,7 +11635,7 @@
         <v>1.47</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R83" t="n">
         <v>1.13</v>
@@ -11644,10 +11644,10 @@
         <v>3.15</v>
       </c>
       <c r="T83" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U83" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V83" t="n">
         <v>1.34</v>
@@ -11737,19 +11737,19 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H84" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="I84" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J84" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="K84" t="n">
         <v>3.3</v>
@@ -11761,34 +11761,34 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O84" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R84" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q84" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S84" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T84" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U84" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V84" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W84" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11887,37 +11887,37 @@
         <v>4.7</v>
       </c>
       <c r="K85" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="M85" t="n">
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O85" t="n">
         <v>1.16</v>
       </c>
       <c r="P85" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="Q85" t="n">
         <v>1.5</v>
       </c>
       <c r="R85" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S85" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T85" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U85" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V85" t="n">
         <v>1.2</v>
@@ -11926,7 +11926,7 @@
         <v>2.56</v>
       </c>
       <c r="X85" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y85" t="n">
         <v>980</v>
@@ -11962,19 +11962,19 @@
         <v>55</v>
       </c>
       <c r="AJ85" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AK85" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL85" t="n">
         <v>980</v>
       </c>
       <c r="AM85" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN85" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO85" t="n">
         <v>980</v>
